--- a/biology/Histoire de la zoologie et de la botanique/Stephen_Elliott_(botaniste)/Stephen_Elliott_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stephen_Elliott_(botaniste)/Stephen_Elliott_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Elliott est un botaniste américain, né le 11 novembre 1771 à Beaufort, Caroline du Sud et mort le 28 mars 1830 à Charleston.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le troisième fils de William Elliott, marchand. Orphelin de père de bonne heure, c’est son frère aîné qui se charge de son éducation. Il part à New Haven, Connecticut en décembre 1787 où il prie en charge par le juge Simeon Baldwin. Il entre à l’université Yale en février 1788. Il obtient son Bachelor of Arts en 1791. Il retourne alors en Caroline du Sud où il devient planteur.
 Elliott se marie en 1796 avec Esther Habersham. Après avoir été élu quelques années à la chambre législative de la Caroline du Sud, il se consacre à sa plantation et à l’étude des sciences naturelles. En 1808, élu à nouveau, il milite pour l’établissement d’une banque d’État qui sera établi en 1812. Il en devient le premier président et s’installe à Charleston.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biographie de l’Harvard University Herbaria (en anglais)</t>
         </is>
